--- a/CLAVES INDUSTRIAL.xlsx
+++ b/CLAVES INDUSTRIAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="217">
   <si>
     <t>ENTIDAD ACADEMICA</t>
   </si>
@@ -42,33 +42,6 @@
     <t>NOMBRE COMPLETO ASIGNATURA</t>
   </si>
   <si>
-    <t>TIPO ASIGNATURA</t>
-  </si>
-  <si>
-    <t>CREDITOS</t>
-  </si>
-  <si>
-    <t>HORAS TEORICAS</t>
-  </si>
-  <si>
-    <t>HORAS PRACTICAS</t>
-  </si>
-  <si>
-    <t>TOTAL HORAS</t>
-  </si>
-  <si>
-    <t>PRACTICAS INCLUIDAS</t>
-  </si>
-  <si>
-    <t>PRACTICAS   FIN SEMESTRE</t>
-  </si>
-  <si>
-    <t>OBLIGATORIA/OPTATIVA</t>
-  </si>
-  <si>
-    <t>IMPARTE</t>
-  </si>
-  <si>
     <t>FACULTAD DE INGENIERÍA</t>
   </si>
   <si>
@@ -673,6 +646,33 @@
   </si>
   <si>
     <t>1055</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA DE DISEÑO Y MANUFACTURA</t>
+  </si>
+  <si>
+    <t>MATERIALES Y MANUFACTURA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA MECATRÓNICA</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -889,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,40 +1112,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:IV102"/>
+    <sheetView tabSelected="1" topLeftCell="H88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1163,60 +1164,63 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E2" s="7">
         <v>2015</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G2" s="6">
         <v>1120</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J2" s="7">
         <v>8</v>
@@ -1232,27 +1236,30 @@
         <v>4</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" s="8">
         <v>2016</v>
@@ -1261,16 +1268,16 @@
         <v>2015</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6">
         <v>1121</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J3" s="7">
         <v>12</v>
@@ -1286,45 +1293,48 @@
         <v>6</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7">
         <v>2015</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G4" s="6">
         <v>1122</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7">
         <v>10</v>
@@ -1340,45 +1350,48 @@
         <v>6</v>
       </c>
       <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7">
         <v>2015</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G5" s="8">
         <v>1124</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J5" s="7">
         <v>6</v>
@@ -1394,45 +1407,48 @@
         <v>4</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7">
         <v>2015</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J6" s="7">
         <v>4</v>
@@ -1448,45 +1464,48 @@
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J7" s="7">
         <v>10</v>
@@ -1502,45 +1521,48 @@
         <v>4</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7">
         <v>2015</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J8" s="7">
         <v>0</v>
@@ -1556,27 +1578,30 @@
         <v>2</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8">
         <v>2016</v>
@@ -1585,16 +1610,16 @@
         <v>2015</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J9" s="7">
         <v>8</v>
@@ -1610,45 +1635,48 @@
         <v>4</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>2015</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J10" s="7">
         <v>8</v>
@@ -1664,45 +1692,48 @@
         <v>4</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7">
         <v>2015</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G11" s="8">
         <v>1222</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J11" s="7">
         <v>2</v>
@@ -1718,45 +1749,48 @@
         <v>2</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <v>2015</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J12" s="7">
         <v>8</v>
@@ -1772,45 +1806,48 @@
         <v>4</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J13" s="7">
         <v>6</v>
@@ -1826,45 +1863,48 @@
         <v>4</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J14" s="7">
         <v>6</v>
@@ -1880,27 +1920,30 @@
         <v>4</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8">
         <v>2016</v>
@@ -1909,16 +1952,16 @@
         <v>2015</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J15" s="7">
         <v>8</v>
@@ -1934,45 +1977,48 @@
         <v>4</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7">
         <v>2015</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J16" s="7">
         <v>8</v>
@@ -1988,45 +2034,48 @@
         <v>4</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E17" s="7">
         <v>2015</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G17" s="8">
         <v>1325</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J17" s="7">
         <v>8</v>
@@ -2042,45 +2091,48 @@
         <v>4</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E18" s="7">
         <v>2015</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J18" s="7">
         <v>8</v>
@@ -2096,45 +2148,48 @@
         <v>4</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J19" s="7">
         <v>10</v>
@@ -2150,27 +2205,30 @@
         <v>6</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8">
         <v>2016</v>
@@ -2179,16 +2237,16 @@
         <v>2015</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J20" s="7">
         <v>10</v>
@@ -2204,27 +2262,30 @@
         <v>4</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D21" s="8">
         <v>2016</v>
@@ -2233,16 +2294,16 @@
         <v>2015</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -2258,45 +2319,48 @@
         <v>2</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E22" s="7">
         <v>2015</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J22" s="7">
         <v>8</v>
@@ -2312,45 +2376,48 @@
         <v>4</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E23" s="7">
         <v>2015</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G23" s="8">
         <v>1436</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J23" s="7">
         <v>8</v>
@@ -2366,45 +2433,48 @@
         <v>4</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7">
         <v>2015</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J24" s="7">
         <v>10</v>
@@ -2420,45 +2490,48 @@
         <v>4</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7">
         <v>2015</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J25" s="7">
         <v>0</v>
@@ -2474,45 +2547,48 @@
         <v>2</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E26" s="7">
         <v>2015</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J26" s="7">
         <v>8</v>
@@ -2528,45 +2604,48 @@
         <v>2</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E27" s="7">
         <v>2015</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
@@ -2582,27 +2661,30 @@
         <v>4</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8">
         <v>2016</v>
@@ -2611,16 +2693,16 @@
         <v>2015</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J28" s="7">
         <v>10</v>
@@ -2636,27 +2718,30 @@
         <v>4</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D29" s="8">
         <v>2016</v>
@@ -2665,16 +2750,16 @@
         <v>2015</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J29" s="7">
         <v>0</v>
@@ -2690,45 +2775,48 @@
         <v>2</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E30" s="7">
         <v>2015</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J30" s="7">
         <v>8</v>
@@ -2744,45 +2832,48 @@
         <v>4</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E31" s="7">
         <v>2015</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G31" s="8">
         <v>1414</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J31" s="7">
         <v>10</v>
@@ -2798,45 +2889,48 @@
         <v>4</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E32" s="7">
         <v>2015</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G32" s="8">
         <v>6414</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J32" s="7">
         <v>0</v>
@@ -2852,45 +2946,48 @@
         <v>2</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7">
         <v>2015</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J33" s="7">
         <v>8</v>
@@ -2906,45 +3003,48 @@
         <v>4</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J34" s="7">
         <v>6</v>
@@ -2960,45 +3060,48 @@
         <v>4</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E35" s="7">
         <v>2015</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J35" s="7">
         <v>8</v>
@@ -3014,27 +3117,30 @@
         <v>4</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D36" s="8">
         <v>2016</v>
@@ -3043,16 +3149,16 @@
         <v>2015</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J36" s="7">
         <v>10</v>
@@ -3068,45 +3174,48 @@
         <v>6</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J37" s="7">
         <v>10</v>
@@ -3122,45 +3231,48 @@
         <v>6</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E38" s="7">
         <v>2015</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G38" s="8">
         <v>1784</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J38" s="7">
         <v>8</v>
@@ -3176,45 +3288,48 @@
         <v>4</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E39" s="7">
         <v>2015</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G39" s="8">
         <v>2602</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J39" s="7">
         <v>8</v>
@@ -3230,45 +3345,48 @@
         <v>4</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E40" s="7">
         <v>2015</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J40" s="7">
         <v>8</v>
@@ -3284,27 +3402,30 @@
         <v>4</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D41" s="8">
         <v>2016</v>
@@ -3313,16 +3434,16 @@
         <v>2015</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J41" s="7">
         <v>10</v>
@@ -3338,45 +3459,48 @@
         <v>6</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J42" s="7">
         <v>10</v>
@@ -3392,45 +3516,48 @@
         <v>6</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E43" s="7">
         <v>2015</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G43" s="8">
         <v>1734</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J43" s="7">
         <v>8</v>
@@ -3446,45 +3573,48 @@
         <v>4</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E44" s="7">
         <v>2015</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J44" s="7">
         <v>8</v>
@@ -3500,45 +3630,48 @@
         <v>4</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E45" s="7">
         <v>2015</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J45" s="7">
         <v>8</v>
@@ -3554,27 +3687,30 @@
         <v>4</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D46" s="8">
         <v>2016</v>
@@ -3583,16 +3719,16 @@
         <v>2015</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J46" s="7">
         <v>8</v>
@@ -3608,45 +3744,48 @@
         <v>4</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q46" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E47" s="7">
         <v>2015</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J47" s="7">
         <v>8</v>
@@ -3662,45 +3801,48 @@
         <v>4</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q47" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E48" s="7">
         <v>2015</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G48" s="8">
         <v>1052</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J48" s="7">
         <v>6</v>
@@ -3716,45 +3858,48 @@
         <v>4</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R48" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E49" s="7">
         <v>2015</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J49" s="7">
         <v>8</v>
@@ -3770,45 +3915,48 @@
         <v>4</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E50" s="7">
         <v>2015</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J50" s="7">
         <v>8</v>
@@ -3824,45 +3972,48 @@
         <v>4</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J51" s="7">
         <v>8</v>
@@ -3878,27 +4029,30 @@
         <v>6</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q51" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D52" s="8">
         <v>2016</v>
@@ -3907,16 +4061,16 @@
         <v>2015</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J52" s="7">
         <v>8</v>
@@ -3932,45 +4086,48 @@
         <v>4</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q52" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E53" s="7">
         <v>2015</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J53" s="7">
         <v>12</v>
@@ -3986,45 +4143,48 @@
         <v>12</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q53" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E54" s="7">
         <v>2015</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G54" s="8">
         <v>2137</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J54" s="7">
         <v>8</v>
@@ -4040,45 +4200,48 @@
         <v>4</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E55" s="7">
         <v>2015</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J55" s="7">
         <v>8</v>
@@ -4094,27 +4257,30 @@
         <v>4</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R55" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D56" s="8">
         <v>2016</v>
@@ -4123,16 +4289,16 @@
         <v>2015</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J56" s="7">
         <v>6</v>
@@ -4148,45 +4314,48 @@
         <v>4</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q56" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J57" s="7">
         <v>6</v>
@@ -4202,45 +4371,48 @@
         <v>4</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q57" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E58" s="7">
         <v>2015</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G58" s="8">
         <v>2921</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J58" s="7">
         <v>6</v>
@@ -4256,45 +4428,48 @@
         <v>4</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q58" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J59" s="7">
         <v>6</v>
@@ -4310,45 +4485,48 @@
         <v>4</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R59" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J60" s="7">
         <v>6</v>
@@ -4364,45 +4542,48 @@
         <v>4</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R60" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J61" s="7">
         <v>6</v>
@@ -4418,45 +4599,48 @@
         <v>4</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R61" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J62" s="7">
         <v>6</v>
@@ -4472,45 +4656,48 @@
         <v>4</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R62" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J63" s="7">
         <v>6</v>
@@ -4526,45 +4713,48 @@
         <v>4</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R63" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I64" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J64" s="7">
         <v>6</v>
@@ -4580,45 +4770,48 @@
         <v>4</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R64" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I65" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J65" s="7">
         <v>6</v>
@@ -4634,45 +4827,48 @@
         <v>4</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R65" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I66" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J66" s="7">
         <v>6</v>
@@ -4688,45 +4884,48 @@
         <v>4</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R66" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J67" s="7">
         <v>6</v>
@@ -4742,45 +4941,48 @@
         <v>4</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R67" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J68" s="7">
         <v>6</v>
@@ -4796,45 +4998,48 @@
         <v>4</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R68" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J69" s="7">
         <v>6</v>
@@ -4850,45 +5055,48 @@
         <v>4</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R69" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J70" s="7">
         <v>6</v>
@@ -4904,45 +5112,48 @@
         <v>4</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R70" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J71" s="7">
         <v>6</v>
@@ -4958,45 +5169,48 @@
         <v>4</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R71" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J72" s="7">
         <v>6</v>
@@ -5012,45 +5226,48 @@
         <v>4</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R72" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E73" s="7">
         <v>2015</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J73" s="7">
         <v>8</v>
@@ -5066,45 +5283,48 @@
         <v>4</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R73" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E74" s="7">
         <v>2015</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J74" s="7">
         <v>8</v>
@@ -5120,45 +5340,48 @@
         <v>4</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J75" s="7">
         <v>8</v>
@@ -5174,45 +5397,48 @@
         <v>5</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E76" s="7">
         <v>2015</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J76" s="7">
         <v>10</v>
@@ -5228,45 +5454,48 @@
         <v>4</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E77" s="7">
         <v>2015</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J77" s="7">
         <v>0</v>
@@ -5282,45 +5511,46 @@
         <v>2</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R77" s="9"/>
+    </row>
+    <row r="78" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J78" s="7">
         <v>6</v>
@@ -5336,45 +5566,48 @@
         <v>4</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E79" s="7">
         <v>2015</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J79" s="7">
         <v>8</v>
@@ -5390,45 +5623,48 @@
         <v>4</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J80" s="7">
         <v>6</v>
@@ -5444,45 +5680,48 @@
         <v>4</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R80" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J81" s="7">
         <v>6</v>
@@ -5498,45 +5737,48 @@
         <v>4</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J82" s="7">
         <v>6</v>
@@ -5552,45 +5794,48 @@
         <v>4</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J83" s="7">
         <v>6</v>
@@ -5606,27 +5851,30 @@
         <v>4</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R83" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D84" s="8">
         <v>2016</v>
@@ -5635,16 +5883,16 @@
         <v>2015</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>159</v>
-      </c>
       <c r="I84" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J84" s="7">
         <v>4</v>
@@ -5660,45 +5908,48 @@
         <v>2</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R84" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E85" s="7">
         <v>2015</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G85" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="I85" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J85" s="7">
         <v>4</v>
@@ -5714,45 +5965,48 @@
         <v>2</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R85" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E86" s="7">
         <v>2015</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G86" s="8">
         <v>1791</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J86" s="7">
         <v>4</v>
@@ -5768,45 +6022,48 @@
         <v>2</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R86" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E87" s="7">
         <v>2015</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G87" s="8">
         <v>1792</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J87" s="7">
         <v>2</v>
@@ -5822,45 +6079,48 @@
         <v>2</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R87" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E88" s="7">
         <v>2015</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G88" s="8">
         <v>1793</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J88" s="7">
         <v>2</v>
@@ -5876,27 +6136,30 @@
         <v>2</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R88" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D89" s="8">
         <v>2016</v>
@@ -5905,16 +6168,16 @@
         <v>2015</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G89" s="8">
         <v>1794</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J89" s="7">
         <v>2</v>
@@ -5930,45 +6193,48 @@
         <v>2</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R89" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E90" s="7">
         <v>2015</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G90" s="8">
         <v>1795</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J90" s="7">
         <v>2</v>
@@ -5984,45 +6250,48 @@
         <v>2</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R90" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E91" s="7">
         <v>2015</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G91" s="8">
         <v>1796</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J91" s="7">
         <v>2</v>
@@ -6038,45 +6307,48 @@
         <v>2</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E92" s="7">
         <v>2015</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J92" s="7">
         <v>4</v>
@@ -6092,27 +6364,28 @@
         <v>2</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R92" s="9"/>
+    </row>
+    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D93" s="8">
         <v>2016</v>
@@ -6121,16 +6394,16 @@
         <v>2015</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J93" s="7">
         <v>6</v>
@@ -6146,45 +6419,46 @@
         <v>3</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R93" s="9"/>
+    </row>
+    <row r="94" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E94" s="7">
         <v>2015</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J94" s="7">
         <v>6</v>
@@ -6200,45 +6474,46 @@
         <v>3</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R94" s="9"/>
+    </row>
+    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E95" s="7">
         <v>2015</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J95" s="7">
         <v>6</v>
@@ -6254,45 +6529,46 @@
         <v>3</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R95" s="9"/>
+    </row>
+    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E96" s="7">
         <v>2015</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J96" s="7">
         <v>6</v>
@@ -6308,45 +6584,46 @@
         <v>3</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R96" s="9"/>
+    </row>
+    <row r="97" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E97" s="7">
         <v>2015</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J97" s="7">
         <v>6</v>
@@ -6362,27 +6639,28 @@
         <v>3</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R97" s="9"/>
+    </row>
+    <row r="98" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D98" s="8">
         <v>2016</v>
@@ -6391,16 +6669,16 @@
         <v>2015</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J98" s="7">
         <v>8</v>
@@ -6416,45 +6694,46 @@
         <v>4</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R98" s="9"/>
+    </row>
+    <row r="99" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E99" s="7">
         <v>2015</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J99" s="7">
         <v>8</v>
@@ -6470,45 +6749,46 @@
         <v>4</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R99" s="9"/>
+    </row>
+    <row r="100" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E100" s="7">
         <v>2015</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J100" s="7">
         <v>8</v>
@@ -6524,45 +6804,46 @@
         <v>4</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R100" s="9"/>
+    </row>
+    <row r="101" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E101" s="7">
         <v>2015</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J101" s="7">
         <v>8</v>
@@ -6578,45 +6859,46 @@
         <v>4</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="R101" s="9"/>
+    </row>
+    <row r="102" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="7">
+        <v>2015</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="7">
-        <v>2015</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H102" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="J102" s="7">
         <v>10</v>
@@ -6632,20 +6914,20 @@
         <v>6</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="R102" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q102"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/CLAVES INDUSTRIAL.xlsx
+++ b/CLAVES INDUSTRIAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ss\PlanesEstudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,31 +1114,30 @@
   </sheetPr>
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
